--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\CDCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA71D1-6D81-4008-A213-EFDB3EA69279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="9320" yWindow="40" windowWidth="15660" windowHeight="13700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Source:</t>
   </si>
@@ -61,12 +78,15 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
+  </si>
+  <si>
+    <t>miles to kilometers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,6 +141,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -168,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +224,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,10 +468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -469,6 +528,14 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.60934</v>
       </c>
     </row>
   </sheetData>
@@ -478,13 +545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -502,8 +571,8 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!$B$15</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>
@@ -512,13 +581,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -536,8 +607,8 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!$B$15</f>
+        <v>1609340000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\CDCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\web-app\CDCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA71D1-6D81-4008-A213-EFDB3EA69279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D5282-DBE5-42DA-9427-489704DC73EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="40" windowWidth="15660" windowHeight="13700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -56,12 +56,6 @@
     <t>For the U.S. model, the desired output units are:</t>
   </si>
   <si>
-    <t>trillion passenger-miles</t>
-  </si>
-  <si>
-    <t>trillion freight ton-miles</t>
-  </si>
-  <si>
     <t>CDCF Passenger Miles per Passenger Distance Output Unit</t>
   </si>
   <si>
@@ -80,7 +74,13 @@
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
   </si>
   <si>
-    <t>miles to kilometers</t>
+    <t>milliom passenger-miles</t>
+  </si>
+  <si>
+    <t>million freight ton-miles</t>
+  </si>
+  <si>
+    <t>km to miles</t>
   </si>
 </sst>
 </file>
@@ -471,23 +471,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,47 +495,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.60934</v>
+        <f>1/1.60934</f>
+        <v>0.62137273664980675</v>
       </c>
     </row>
   </sheetData>
@@ -552,27 +553,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <f>10^12*About!$B$15</f>
-        <v>1609340000000</v>
+        <f>10^6*About!$B$15</f>
+        <v>621372.73664980673</v>
       </c>
     </row>
   </sheetData>
@@ -587,28 +588,28 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f>10^12*About!$B$15</f>
-        <v>1609340000000</v>
+        <f>10^6*About!$B$15</f>
+        <v>621372.73664980673</v>
       </c>
     </row>
   </sheetData>
